--- a/Data/Coral_tracking/PartialMortality_Dec2022.xlsx
+++ b/Data/Coral_tracking/PartialMortality_Dec2022.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\00109219\Dropbox\R_projects\Porites_Survival_2023\Data\Coral_tracking\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\00109219\Dropbox\R_projects\Starko_et_al_Porites_Survival_2023\Data\Coral_tracking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45C1AFF9-4B07-4FF5-BDC1-57BCF63475EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0042C988-9D81-4017-BEB9-FE93A944C4A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{354DB0B4-D6F0-D847-BE35-8E2F4FA7E2DC}"/>
   </bookViews>
@@ -245,18 +245,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -271,22 +265,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -296,15 +277,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -623,67 +601,69 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEFC659A-9A73-6B46-AA3C-203456B88D62}">
   <dimension ref="A1:O80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView tabSelected="1" zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="3" width="18.1640625" style="1" customWidth="1"/>
+    <col min="1" max="3" width="18.1640625" style="2" customWidth="1"/>
     <col min="4" max="4" width="18.1640625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" customWidth="1"/>
-    <col min="13" max="13" width="10.6640625" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" style="1" customWidth="1"/>
+    <col min="6" max="12" width="10.6640625" style="1"/>
+    <col min="13" max="13" width="10.6640625" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>52</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="1" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -695,45 +675,45 @@
       <c r="D2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="1">
         <v>3</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="1">
         <v>0.40785196721995665</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="1">
         <v>28.435051019824108</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="1">
         <v>54</v>
       </c>
-      <c r="I2" s="6">
+      <c r="I2" s="4">
         <v>3243.6419999999998</v>
       </c>
-      <c r="J2" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="K2" s="6">
+      <c r="J2" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K2" s="4">
         <v>2316.0729999999999</v>
       </c>
-      <c r="L2" s="6">
+      <c r="L2" s="4">
         <v>2017</v>
       </c>
-      <c r="M2">
+      <c r="M2" s="1">
         <f>K2/I2</f>
         <v>0.71403471776478411</v>
       </c>
-      <c r="N2">
+      <c r="N2" s="1">
         <f t="shared" ref="N2:N33" si="0">(1-M2)*100</f>
         <v>28.596528223521588</v>
       </c>
-      <c r="O2">
+      <c r="O2" s="1">
         <f t="shared" ref="O2:O33" si="1">N2/100</f>
         <v>0.28596528223521589</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A3" s="9">
+      <c r="A3" s="2">
         <v>230</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -745,45 +725,45 @@
       <c r="D3" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="6">
         <v>3</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="1">
         <v>0.40785196721995665</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="1">
         <v>28.435051019824108</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="1">
         <v>30</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I3" s="4">
         <v>563.06600000000003</v>
       </c>
-      <c r="J3" t="s">
-        <v>39</v>
-      </c>
-      <c r="K3" s="6">
+      <c r="J3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K3" s="4">
         <v>159.73400000000001</v>
       </c>
-      <c r="L3" s="6">
+      <c r="L3" s="4">
         <v>2017</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="1">
         <f>K3/I3</f>
         <v>0.28368610429328001</v>
       </c>
-      <c r="N3">
+      <c r="N3" s="1">
         <f t="shared" si="0"/>
         <v>71.631389570671999</v>
       </c>
-      <c r="O3">
+      <c r="O3" s="1">
         <f t="shared" si="1"/>
         <v>0.71631389570671999</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A4" s="9">
+      <c r="A4" s="2">
         <v>241</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -795,45 +775,45 @@
       <c r="D4" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E4" s="1">
         <v>8</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4" s="1">
         <v>0.49951460519109475</v>
       </c>
-      <c r="G4" s="14">
+      <c r="G4" s="1">
         <v>34.825682907877052</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="1">
         <v>31</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4" s="4">
         <v>744.22299999999996</v>
       </c>
-      <c r="J4" t="s">
-        <v>39</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4" s="6" t="s">
+      <c r="J4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0</v>
+      </c>
+      <c r="L4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="1">
         <f>K4/I4</f>
         <v>0</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="1">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="O4">
+      <c r="O4" s="1">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A5" s="9">
+      <c r="A5" s="2">
         <v>821</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -845,44 +825,44 @@
       <c r="D5" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="1">
         <v>5</v>
       </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
         <v>49</v>
       </c>
-      <c r="I5" s="8">
+      <c r="I5" s="7">
         <v>1345.748</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="K5" s="8">
+      <c r="K5" s="7">
         <v>1498.492</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="1">
         <v>2017</v>
       </c>
-      <c r="M5">
-        <v>1</v>
-      </c>
-      <c r="N5">
+      <c r="M5" s="1">
+        <v>1</v>
+      </c>
+      <c r="N5" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O5">
+      <c r="O5" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A6" s="9">
+      <c r="A6" s="2">
         <v>831</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -894,44 +874,44 @@
       <c r="D6" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="1">
         <v>5</v>
       </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
         <v>50</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6" s="4">
         <v>2084.9490000000001</v>
       </c>
-      <c r="J6" t="s">
-        <v>39</v>
-      </c>
-      <c r="K6" s="6">
+      <c r="J6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K6" s="4">
         <v>3482.9650000000001</v>
       </c>
-      <c r="L6" s="6">
+      <c r="L6" s="4">
         <v>2017</v>
       </c>
-      <c r="M6">
-        <v>1</v>
-      </c>
-      <c r="N6">
+      <c r="M6" s="1">
+        <v>1</v>
+      </c>
+      <c r="N6" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O6">
+      <c r="O6" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -943,45 +923,45 @@
       <c r="D7" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="1">
         <v>5</v>
       </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
         <v>59</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I7" s="4">
         <v>883.23699999999997</v>
       </c>
-      <c r="J7" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="K7" s="6">
+      <c r="J7" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K7" s="4">
         <v>753.75300000000004</v>
       </c>
-      <c r="L7" s="6">
+      <c r="L7" s="4">
         <v>2017</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="1">
         <f t="shared" ref="M7:M28" si="2">K7/I7</f>
         <v>0.8533983517447753</v>
       </c>
-      <c r="N7">
+      <c r="N7" s="1">
         <f t="shared" si="0"/>
         <v>14.66016482552247</v>
       </c>
-      <c r="O7">
+      <c r="O7" s="1">
         <f t="shared" si="1"/>
         <v>0.1466016482552247</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -993,45 +973,45 @@
       <c r="D8" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="1">
         <v>5</v>
       </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
         <v>60</v>
       </c>
-      <c r="I8" s="6">
+      <c r="I8" s="4">
         <v>4832.2060000000001</v>
       </c>
-      <c r="J8" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="K8" s="6">
+      <c r="J8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K8" s="4">
         <v>132.74299999999999</v>
       </c>
-      <c r="L8" s="6">
+      <c r="L8" s="4">
         <v>2017</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="1">
         <f t="shared" si="2"/>
         <v>2.7470476217280469E-2</v>
       </c>
-      <c r="N8">
+      <c r="N8" s="1">
         <f t="shared" si="0"/>
         <v>97.252952378271956</v>
       </c>
-      <c r="O8">
+      <c r="O8" s="1">
         <f t="shared" si="1"/>
         <v>0.97252952378271962</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A9" s="9">
+      <c r="A9" s="2">
         <v>812</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -1043,145 +1023,145 @@
       <c r="D9" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="1">
         <v>5</v>
       </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
         <v>70</v>
       </c>
-      <c r="I9" s="6">
+      <c r="I9" s="4">
         <v>1436.0809999999999</v>
       </c>
-      <c r="J9" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9" t="s">
+      <c r="J9" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0</v>
+      </c>
+      <c r="L9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="M9">
+      <c r="M9" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N9">
+      <c r="N9" s="1">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="O9">
+      <c r="O9" s="1">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A10" s="9">
+      <c r="A10" s="2">
         <v>839</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="2" t="s">
         <v>54</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="1">
         <v>5</v>
       </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
         <v>5</v>
       </c>
-      <c r="I10" s="7">
+      <c r="I10" s="5">
         <v>687.74199999999996</v>
       </c>
-      <c r="J10" t="s">
+      <c r="J10" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="K10" s="6">
+      <c r="K10" s="4">
         <v>261.774</v>
       </c>
-      <c r="L10" s="6" t="s">
+      <c r="L10" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="M10">
+      <c r="M10" s="1">
         <f t="shared" si="2"/>
         <v>0.38062820069153841</v>
       </c>
-      <c r="N10">
+      <c r="N10" s="1">
         <f t="shared" si="0"/>
         <v>61.937179930846156</v>
       </c>
-      <c r="O10">
+      <c r="O10" s="1">
         <f t="shared" si="1"/>
         <v>0.61937179930846153</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="2" t="s">
         <v>54</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="1">
         <v>5</v>
       </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
         <v>15</v>
       </c>
-      <c r="I11" s="6">
+      <c r="I11" s="4">
         <v>2113.8989999999999</v>
       </c>
-      <c r="J11" t="s">
-        <v>39</v>
-      </c>
-      <c r="K11" s="6">
+      <c r="J11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K11" s="4">
         <v>879.18100000000004</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="1">
         <v>2017</v>
       </c>
-      <c r="M11">
+      <c r="M11" s="1">
         <f t="shared" si="2"/>
         <v>0.41590492260983147</v>
       </c>
-      <c r="N11">
+      <c r="N11" s="1">
         <f t="shared" si="0"/>
         <v>58.409507739016853</v>
       </c>
-      <c r="O11">
+      <c r="O11" s="1">
         <f t="shared" si="1"/>
         <v>0.58409507739016853</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A12" s="9">
+      <c r="A12" s="2">
         <v>790</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -1193,45 +1173,45 @@
       <c r="D12" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="1">
         <v>5</v>
       </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>39</v>
-      </c>
-      <c r="I12" s="6">
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
+        <v>39</v>
+      </c>
+      <c r="I12" s="4">
         <v>1208.46</v>
       </c>
-      <c r="J12" t="s">
-        <v>39</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12" t="s">
+      <c r="J12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0</v>
+      </c>
+      <c r="L12" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="M12">
+      <c r="M12" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N12">
+      <c r="N12" s="1">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="O12">
+      <c r="O12" s="1">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A13" s="9">
+      <c r="A13" s="2">
         <v>827</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -1243,45 +1223,45 @@
       <c r="D13" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="1">
         <v>5</v>
       </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1">
         <v>40</v>
       </c>
-      <c r="I13" s="6">
+      <c r="I13" s="4">
         <v>3688.2890000000002</v>
       </c>
-      <c r="J13" t="s">
-        <v>39</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13" t="s">
+      <c r="J13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K13" s="1">
+        <v>0</v>
+      </c>
+      <c r="L13" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="M13">
+      <c r="M13" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N13">
+      <c r="N13" s="1">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="O13">
+      <c r="O13" s="1">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A14" s="9">
+      <c r="A14" s="2">
         <v>880</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -1293,45 +1273,45 @@
       <c r="D14" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="1">
         <v>8</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="1">
         <v>0.49951460519109475</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="1">
         <v>34.825682907877052</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="1">
         <v>52</v>
       </c>
-      <c r="I14" s="6">
+      <c r="I14" s="4">
         <v>898.70699999999999</v>
       </c>
-      <c r="J14" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="K14" s="6">
+      <c r="J14" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K14" s="4">
         <v>160.131</v>
       </c>
-      <c r="L14" s="6">
+      <c r="L14" s="4">
         <v>2017</v>
       </c>
-      <c r="M14">
+      <c r="M14" s="1">
         <f t="shared" si="2"/>
         <v>0.17817931761964689</v>
       </c>
-      <c r="N14">
+      <c r="N14" s="1">
         <f t="shared" si="0"/>
         <v>82.182068238035313</v>
       </c>
-      <c r="O14">
+      <c r="O14" s="1">
         <f t="shared" si="1"/>
         <v>0.82182068238035311</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A15" s="9">
+      <c r="A15" s="2">
         <v>1086</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -1343,45 +1323,45 @@
       <c r="D15" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="1">
         <v>8</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="1">
         <v>0.49951460519109475</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="1">
         <v>34.825682907877052</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="1">
         <v>53</v>
       </c>
-      <c r="I15" s="6">
+      <c r="I15" s="4">
         <v>3688.1509999999998</v>
       </c>
-      <c r="J15" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="K15" s="6">
+      <c r="J15" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K15" s="4">
         <v>1368.768</v>
       </c>
-      <c r="L15" s="6">
+      <c r="L15" s="4">
         <v>2017</v>
       </c>
-      <c r="M15">
+      <c r="M15" s="1">
         <f t="shared" si="2"/>
         <v>0.37112580260406913</v>
       </c>
-      <c r="N15">
+      <c r="N15" s="1">
         <f t="shared" si="0"/>
         <v>62.887419739593085</v>
       </c>
-      <c r="O15">
+      <c r="O15" s="1">
         <f t="shared" si="1"/>
         <v>0.62887419739593087</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A16" s="9">
+      <c r="A16" s="2">
         <v>883</v>
       </c>
       <c r="B16" s="3" t="s">
@@ -1393,45 +1373,45 @@
       <c r="D16" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="1">
         <v>8</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="1">
         <v>0.49951460519109475</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="1">
         <v>34.825682907877052</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="1">
         <v>72</v>
       </c>
-      <c r="I16" s="6">
+      <c r="I16" s="4">
         <v>1955.885</v>
       </c>
-      <c r="J16" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16" t="s">
+      <c r="J16" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K16" s="1">
+        <v>0</v>
+      </c>
+      <c r="L16" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="M16">
+      <c r="M16" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N16">
+      <c r="N16" s="1">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="O16">
+      <c r="O16" s="1">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A17" s="9">
+      <c r="A17" s="2">
         <v>717</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -1443,45 +1423,45 @@
       <c r="D17" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="1">
         <v>8</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="1">
         <v>0.49951460519109475</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="1">
         <v>34.825682907877052</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="1">
         <v>4</v>
       </c>
-      <c r="I17" s="6">
+      <c r="I17" s="4">
         <v>330.69600000000003</v>
       </c>
-      <c r="J17" t="s">
-        <v>39</v>
-      </c>
-      <c r="K17" s="6">
+      <c r="J17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K17" s="4">
         <v>13.888</v>
       </c>
-      <c r="L17" s="6">
+      <c r="L17" s="4">
         <v>2017</v>
       </c>
-      <c r="M17">
+      <c r="M17" s="1">
         <f t="shared" si="2"/>
         <v>4.1996274524034156E-2</v>
       </c>
-      <c r="N17">
+      <c r="N17" s="1">
         <f t="shared" si="0"/>
         <v>95.800372547596581</v>
       </c>
-      <c r="O17">
+      <c r="O17" s="1">
         <f t="shared" si="1"/>
         <v>0.95800372547596579</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B18" s="3" t="s">
@@ -1493,45 +1473,45 @@
       <c r="D18" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="1">
         <v>8</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="1">
         <v>0.49951460519109475</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="1">
         <v>34.825682907877052</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="1">
         <v>46</v>
       </c>
-      <c r="I18" s="6">
+      <c r="I18" s="4">
         <v>1828.597</v>
       </c>
-      <c r="J18" t="s">
-        <v>39</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18" t="s">
+      <c r="J18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K18" s="1">
+        <v>0</v>
+      </c>
+      <c r="L18" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="M18">
+      <c r="M18" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N18">
+      <c r="N18" s="1">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="O18">
+      <c r="O18" s="1">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A19" s="9">
+      <c r="A19" s="2">
         <v>325</v>
       </c>
       <c r="B19" s="3" t="s">
@@ -1543,45 +1523,45 @@
       <c r="D19" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E19" s="14">
+      <c r="E19" s="1">
         <v>34</v>
       </c>
-      <c r="F19" s="14">
+      <c r="F19" s="1">
         <v>0.49951460519109475</v>
       </c>
-      <c r="G19" s="14">
+      <c r="G19" s="1">
         <v>34.825682907877052</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="1">
         <v>32</v>
       </c>
-      <c r="I19" s="6">
+      <c r="I19" s="4">
         <v>1568.1079999999999</v>
       </c>
-      <c r="J19" t="s">
-        <v>39</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19" s="6" t="s">
+      <c r="J19" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K19" s="1">
+        <v>0</v>
+      </c>
+      <c r="L19" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="M19">
+      <c r="M19" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N19">
+      <c r="N19" s="1">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="O19">
+      <c r="O19" s="1">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A20" s="9">
+      <c r="A20" s="2">
         <v>888</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -1593,45 +1573,45 @@
       <c r="D20" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="1">
         <v>8</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="1">
         <v>0.49951460519109475</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="1">
         <v>34.825682907877052</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="1">
         <v>41</v>
       </c>
-      <c r="I20" s="6">
+      <c r="I20" s="4">
         <v>6093.1030000000001</v>
       </c>
-      <c r="J20" t="s">
-        <v>39</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20" t="s">
+      <c r="J20" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K20" s="1">
+        <v>0</v>
+      </c>
+      <c r="L20" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="M20">
+      <c r="M20" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N20">
+      <c r="N20" s="1">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="O20">
+      <c r="O20" s="1">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A21" s="9">
+      <c r="A21" s="2">
         <v>596</v>
       </c>
       <c r="B21" s="3" t="s">
@@ -1643,195 +1623,195 @@
       <c r="D21" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="1">
         <v>15</v>
       </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
+      <c r="F21" s="1">
+        <v>0</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0</v>
+      </c>
+      <c r="H21" s="1">
         <v>69</v>
       </c>
-      <c r="I21" s="6">
+      <c r="I21" s="4">
         <v>1990.433</v>
       </c>
-      <c r="J21" s="6" t="s">
+      <c r="J21" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="L21" t="s">
+      <c r="K21" s="1">
+        <v>0</v>
+      </c>
+      <c r="L21" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="M21">
+      <c r="M21" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N21">
+      <c r="N21" s="1">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="O21">
+      <c r="O21" s="1">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B22" s="10" t="s">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D22" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="E22" s="5">
+      <c r="D22" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E22" s="1">
         <v>15</v>
       </c>
-      <c r="F22" s="5">
-        <v>0</v>
-      </c>
-      <c r="G22" s="5">
-        <v>0</v>
-      </c>
-      <c r="H22" s="5">
-        <v>1</v>
-      </c>
-      <c r="I22" s="11">
+      <c r="F22" s="1">
+        <v>0</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0</v>
+      </c>
+      <c r="H22" s="1">
+        <v>1</v>
+      </c>
+      <c r="I22" s="4">
         <v>403.08600000000001</v>
       </c>
-      <c r="J22" s="5" t="s">
+      <c r="J22" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="K22" s="11">
+      <c r="K22" s="4">
         <v>392.48899999999998</v>
       </c>
-      <c r="L22" s="11">
+      <c r="L22" s="4">
         <v>2017</v>
       </c>
-      <c r="M22" s="5">
+      <c r="M22" s="1">
         <f t="shared" si="2"/>
         <v>0.9737103248438298</v>
       </c>
-      <c r="N22" s="5">
+      <c r="N22" s="1">
         <f t="shared" si="0"/>
         <v>2.62896751561702</v>
       </c>
-      <c r="O22" s="5">
+      <c r="O22" s="1">
         <f t="shared" si="1"/>
         <v>2.62896751561702E-2</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A23" s="9">
+      <c r="A23" s="2">
         <v>627</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="2" t="s">
         <v>54</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="1">
         <v>15</v>
       </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23">
+      <c r="F23" s="1">
+        <v>0</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0</v>
+      </c>
+      <c r="H23" s="1">
         <v>2</v>
       </c>
-      <c r="I23" s="6">
+      <c r="I23" s="4">
         <v>1906.373</v>
       </c>
-      <c r="J23" t="s">
-        <v>39</v>
-      </c>
-      <c r="K23" s="6">
+      <c r="J23" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K23" s="4">
         <v>146.77799999999999</v>
       </c>
-      <c r="L23" s="6">
+      <c r="L23" s="4">
         <v>2017</v>
       </c>
-      <c r="M23">
+      <c r="M23" s="1">
         <f t="shared" si="2"/>
         <v>7.6993327119089489E-2</v>
       </c>
-      <c r="N23">
+      <c r="N23" s="1">
         <f t="shared" si="0"/>
         <v>92.300667288091049</v>
       </c>
-      <c r="O23">
+      <c r="O23" s="1">
         <f t="shared" si="1"/>
         <v>0.92300667288091054</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="2" t="s">
         <v>54</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="1">
         <v>15</v>
       </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="H24">
+      <c r="F24" s="1">
+        <v>0</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0</v>
+      </c>
+      <c r="H24" s="1">
         <v>11</v>
       </c>
-      <c r="I24" s="6">
+      <c r="I24" s="4">
         <v>3039.2910000000002</v>
       </c>
-      <c r="J24" t="s">
-        <v>39</v>
-      </c>
-      <c r="K24" s="6">
+      <c r="J24" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K24" s="4">
         <v>164.48599999999999</v>
       </c>
-      <c r="L24" s="6">
+      <c r="L24" s="4">
         <v>2017</v>
       </c>
-      <c r="M24">
+      <c r="M24" s="1">
         <f t="shared" si="2"/>
         <v>5.4119858874981032E-2</v>
       </c>
-      <c r="N24">
+      <c r="N24" s="1">
         <f t="shared" si="0"/>
         <v>94.588014112501895</v>
       </c>
-      <c r="O24">
+      <c r="O24" s="1">
         <f t="shared" si="1"/>
         <v>0.94588014112501895</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A25" s="9" t="s">
+      <c r="A25" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -1843,45 +1823,45 @@
       <c r="D25" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="1">
         <v>15</v>
       </c>
-      <c r="F25">
-        <v>0</v>
-      </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-      <c r="H25">
+      <c r="F25" s="1">
+        <v>0</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0</v>
+      </c>
+      <c r="H25" s="1">
         <v>12</v>
       </c>
-      <c r="I25" s="6">
+      <c r="I25" s="4">
         <v>1364.11</v>
       </c>
-      <c r="J25" t="s">
-        <v>39</v>
-      </c>
-      <c r="K25" s="6">
+      <c r="J25" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K25" s="4">
         <v>11.36</v>
       </c>
-      <c r="L25" s="6">
+      <c r="L25" s="4">
         <v>2017</v>
       </c>
-      <c r="M25">
+      <c r="M25" s="1">
         <f t="shared" si="2"/>
         <v>8.3277741531108205E-3</v>
       </c>
-      <c r="N25">
+      <c r="N25" s="1">
         <f t="shared" si="0"/>
         <v>99.167222584688915</v>
       </c>
-      <c r="O25">
+      <c r="O25" s="1">
         <f t="shared" si="1"/>
         <v>0.99167222584688919</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A26" s="9">
+      <c r="A26" s="2">
         <v>601</v>
       </c>
       <c r="B26" s="3" t="s">
@@ -1893,95 +1873,95 @@
       <c r="D26" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="1">
         <v>15</v>
       </c>
-      <c r="F26">
-        <v>0</v>
-      </c>
-      <c r="G26">
-        <v>0</v>
-      </c>
-      <c r="H26">
+      <c r="F26" s="1">
+        <v>0</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0</v>
+      </c>
+      <c r="H26" s="1">
         <v>21</v>
       </c>
-      <c r="I26" s="7">
+      <c r="I26" s="5">
         <v>1453.5740000000001</v>
       </c>
-      <c r="J26" t="s">
-        <v>39</v>
-      </c>
-      <c r="K26">
-        <v>0</v>
-      </c>
-      <c r="L26" t="s">
+      <c r="J26" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K26" s="1">
+        <v>0</v>
+      </c>
+      <c r="L26" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="M26">
+      <c r="M26" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N26">
+      <c r="N26" s="1">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="O26">
+      <c r="O26" s="1">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A27" s="9">
+      <c r="A27" s="2">
         <v>608</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="2" t="s">
         <v>54</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="1">
         <v>15</v>
       </c>
-      <c r="F27">
-        <v>0</v>
-      </c>
-      <c r="G27">
-        <v>0</v>
-      </c>
-      <c r="H27">
+      <c r="F27" s="1">
+        <v>0</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0</v>
+      </c>
+      <c r="H27" s="1">
         <v>22</v>
       </c>
-      <c r="I27" s="6">
+      <c r="I27" s="4">
         <v>1151.633</v>
       </c>
-      <c r="J27" t="s">
-        <v>39</v>
-      </c>
-      <c r="K27">
-        <v>0</v>
-      </c>
-      <c r="L27" t="s">
+      <c r="J27" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K27" s="1">
+        <v>0</v>
+      </c>
+      <c r="L27" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="M27">
+      <c r="M27" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N27">
+      <c r="N27" s="1">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="O27">
+      <c r="O27" s="1">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A28" s="9">
+      <c r="A28" s="2">
         <v>604</v>
       </c>
       <c r="B28" s="3" t="s">
@@ -1993,194 +1973,194 @@
       <c r="D28" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="1">
         <v>15</v>
       </c>
-      <c r="F28">
-        <v>0</v>
-      </c>
-      <c r="G28">
-        <v>0</v>
-      </c>
-      <c r="H28">
+      <c r="F28" s="1">
+        <v>0</v>
+      </c>
+      <c r="G28" s="1">
+        <v>0</v>
+      </c>
+      <c r="H28" s="1">
         <v>36</v>
       </c>
-      <c r="I28" s="6">
+      <c r="I28" s="4">
         <v>919.71900000000005</v>
       </c>
-      <c r="J28" t="s">
-        <v>39</v>
-      </c>
-      <c r="K28">
-        <v>0</v>
-      </c>
-      <c r="L28" t="s">
+      <c r="J28" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K28" s="1">
+        <v>0</v>
+      </c>
+      <c r="L28" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="M28">
+      <c r="M28" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N28">
+      <c r="N28" s="1">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="O28">
+      <c r="O28" s="1">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A29" s="9">
+      <c r="A29" s="2">
         <v>591</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="1">
         <v>15</v>
       </c>
-      <c r="F29">
-        <v>0</v>
-      </c>
-      <c r="G29">
-        <v>0</v>
-      </c>
-      <c r="H29">
+      <c r="F29" s="1">
+        <v>0</v>
+      </c>
+      <c r="G29" s="1">
+        <v>0</v>
+      </c>
+      <c r="H29" s="1">
         <v>78</v>
       </c>
-      <c r="I29" s="6">
+      <c r="I29" s="4">
         <v>887.85599999999999</v>
       </c>
-      <c r="J29" t="s">
-        <v>39</v>
-      </c>
-      <c r="K29" s="6">
+      <c r="J29" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K29" s="4">
         <v>919.63400000000001</v>
       </c>
-      <c r="L29" s="6">
+      <c r="L29" s="4">
         <v>2017</v>
       </c>
-      <c r="M29">
-        <v>1</v>
-      </c>
-      <c r="N29">
+      <c r="M29" s="1">
+        <v>1</v>
+      </c>
+      <c r="N29" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O29">
+      <c r="O29" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A30" s="9">
+      <c r="A30" s="2">
         <v>474</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="2" t="s">
         <v>54</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E30" s="14">
+      <c r="E30" s="1">
         <v>27</v>
       </c>
-      <c r="F30" s="14">
+      <c r="F30" s="1">
         <v>1.2234667187215671</v>
       </c>
-      <c r="G30" s="14">
+      <c r="G30" s="1">
         <v>85.298935309885294</v>
       </c>
-      <c r="H30">
+      <c r="H30" s="1">
         <v>79</v>
       </c>
-      <c r="I30" s="6">
+      <c r="I30" s="4">
         <v>85.674999999999997</v>
       </c>
-      <c r="J30" t="s">
-        <v>39</v>
-      </c>
-      <c r="K30">
-        <v>0</v>
-      </c>
-      <c r="L30" t="s">
+      <c r="J30" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K30" s="1">
+        <v>0</v>
+      </c>
+      <c r="L30" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="M30">
+      <c r="M30" s="1">
         <f>K30/I30</f>
         <v>0</v>
       </c>
-      <c r="N30">
+      <c r="N30" s="1">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="O30">
+      <c r="O30" s="1">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A31" s="9" t="s">
+      <c r="A31" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="16" t="s">
+      <c r="B31" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="2" t="s">
         <v>54</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="1">
         <v>19</v>
       </c>
-      <c r="F31">
-        <v>0</v>
-      </c>
-      <c r="G31">
-        <v>0</v>
-      </c>
-      <c r="H31">
+      <c r="F31" s="1">
+        <v>0</v>
+      </c>
+      <c r="G31" s="1">
+        <v>0</v>
+      </c>
+      <c r="H31" s="1">
         <v>58</v>
       </c>
-      <c r="I31" s="6">
+      <c r="I31" s="4">
         <v>657.15700000000004</v>
       </c>
-      <c r="J31" t="s">
-        <v>39</v>
-      </c>
-      <c r="K31" s="6">
+      <c r="J31" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K31" s="4">
         <v>530.03499999999997</v>
       </c>
-      <c r="L31" s="6">
+      <c r="L31" s="4">
         <v>2017</v>
       </c>
-      <c r="M31">
+      <c r="M31" s="1">
         <f>K31/I31</f>
         <v>0.80655764147684639</v>
       </c>
-      <c r="N31">
+      <c r="N31" s="1">
         <f t="shared" si="0"/>
         <v>19.344235852315361</v>
       </c>
-      <c r="O31">
+      <c r="O31" s="1">
         <f t="shared" si="1"/>
         <v>0.19344235852315361</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A32" s="15">
+      <c r="A32" s="2">
         <v>659</v>
       </c>
       <c r="B32" s="3" t="s">
@@ -2192,46 +2172,46 @@
       <c r="D32" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="1">
         <v>19</v>
       </c>
-      <c r="F32">
-        <v>0</v>
-      </c>
-      <c r="G32">
-        <v>0</v>
-      </c>
-      <c r="H32">
+      <c r="F32" s="1">
+        <v>0</v>
+      </c>
+      <c r="G32" s="1">
+        <v>0</v>
+      </c>
+      <c r="H32" s="1">
         <v>3</v>
       </c>
-      <c r="I32" s="7">
+      <c r="I32" s="5">
         <v>416.95400000000001</v>
       </c>
-      <c r="J32" t="s">
-        <v>39</v>
-      </c>
-      <c r="K32" s="7">
+      <c r="J32" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K32" s="5">
         <f>275.089+96.186</f>
         <v>371.27499999999998</v>
       </c>
-      <c r="L32">
+      <c r="L32" s="1">
         <v>2017</v>
       </c>
-      <c r="M32">
+      <c r="M32" s="1">
         <f>K32/I32</f>
         <v>0.89044594847393232</v>
       </c>
-      <c r="N32">
+      <c r="N32" s="1">
         <f t="shared" si="0"/>
         <v>10.955405152606767</v>
       </c>
-      <c r="O32">
+      <c r="O32" s="1">
         <f t="shared" si="1"/>
         <v>0.10955405152606768</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A33" s="15">
+      <c r="A33" s="2">
         <v>867</v>
       </c>
       <c r="B33" s="3" t="s">
@@ -2243,94 +2223,94 @@
       <c r="D33" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="1">
         <v>19</v>
       </c>
-      <c r="F33">
-        <v>0</v>
-      </c>
-      <c r="G33">
-        <v>0</v>
-      </c>
-      <c r="H33">
+      <c r="F33" s="1">
+        <v>0</v>
+      </c>
+      <c r="G33" s="1">
+        <v>0</v>
+      </c>
+      <c r="H33" s="1">
         <v>6</v>
       </c>
-      <c r="I33" s="6">
+      <c r="I33" s="4">
         <v>990.89599999999996</v>
       </c>
-      <c r="J33" t="s">
-        <v>39</v>
-      </c>
-      <c r="K33" s="6">
+      <c r="J33" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K33" s="4">
         <v>71.102999999999994</v>
       </c>
-      <c r="L33" s="6">
+      <c r="L33" s="4">
         <v>2017</v>
       </c>
-      <c r="M33">
+      <c r="M33" s="1">
         <f>K33/I33</f>
         <v>7.1756269073646475E-2</v>
       </c>
-      <c r="N33">
+      <c r="N33" s="1">
         <f t="shared" si="0"/>
         <v>92.824373092635355</v>
       </c>
-      <c r="O33">
+      <c r="O33" s="1">
         <f t="shared" si="1"/>
         <v>0.92824373092635359</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A34" s="15" t="s">
+      <c r="A34" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" s="2" t="s">
         <v>54</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="1">
         <v>19</v>
       </c>
-      <c r="F34">
-        <v>0</v>
-      </c>
-      <c r="G34">
-        <v>0</v>
-      </c>
-      <c r="H34">
+      <c r="F34" s="1">
+        <v>0</v>
+      </c>
+      <c r="G34" s="1">
+        <v>0</v>
+      </c>
+      <c r="H34" s="1">
         <v>14</v>
       </c>
-      <c r="I34" s="6">
+      <c r="I34" s="4">
         <v>513.29999999999995</v>
       </c>
-      <c r="J34" t="s">
-        <v>39</v>
-      </c>
-      <c r="K34" s="6">
+      <c r="J34" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K34" s="4">
         <v>641.63099999999997</v>
       </c>
-      <c r="L34" s="6">
+      <c r="L34" s="4">
         <v>2017</v>
       </c>
-      <c r="M34">
-        <v>1</v>
-      </c>
-      <c r="N34">
+      <c r="M34" s="1">
+        <v>1</v>
+      </c>
+      <c r="N34" s="1">
         <f t="shared" ref="N34:N65" si="3">(1-M34)*100</f>
         <v>0</v>
       </c>
-      <c r="O34">
+      <c r="O34" s="1">
         <f t="shared" ref="O34:O65" si="4">N34/100</f>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A35" s="15" t="s">
+      <c r="A35" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B35" s="3" t="s">
@@ -2342,44 +2322,44 @@
       <c r="D35" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="1">
         <v>19</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="1">
         <v>1.4343282413511895E-2</v>
       </c>
-      <c r="G35">
-        <v>0</v>
-      </c>
-      <c r="H35">
+      <c r="G35" s="1">
+        <v>0</v>
+      </c>
+      <c r="H35" s="1">
         <v>13</v>
       </c>
-      <c r="I35" s="6">
+      <c r="I35" s="4">
         <v>1230.33</v>
       </c>
-      <c r="J35" t="s">
-        <v>39</v>
-      </c>
-      <c r="K35" s="6">
+      <c r="J35" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K35" s="4">
         <v>1941.1179999999999</v>
       </c>
-      <c r="L35" s="6">
+      <c r="L35" s="4">
         <v>2017</v>
       </c>
-      <c r="M35">
-        <v>1</v>
-      </c>
-      <c r="N35">
+      <c r="M35" s="1">
+        <v>1</v>
+      </c>
+      <c r="N35" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O35">
+      <c r="O35" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A36" s="15">
+      <c r="A36" s="2">
         <v>670</v>
       </c>
       <c r="B36" s="3" t="s">
@@ -2391,95 +2371,95 @@
       <c r="D36" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="1">
         <v>19</v>
       </c>
-      <c r="F36">
-        <v>0</v>
-      </c>
-      <c r="G36">
-        <v>0</v>
-      </c>
-      <c r="H36">
+      <c r="F36" s="1">
+        <v>0</v>
+      </c>
+      <c r="G36" s="1">
+        <v>0</v>
+      </c>
+      <c r="H36" s="1">
         <v>37</v>
       </c>
-      <c r="I36" s="6">
+      <c r="I36" s="4">
         <v>807.24699999999996</v>
       </c>
-      <c r="J36" t="s">
-        <v>39</v>
-      </c>
-      <c r="K36">
-        <v>0</v>
-      </c>
-      <c r="L36" t="s">
+      <c r="J36" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K36" s="1">
+        <v>0</v>
+      </c>
+      <c r="L36" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="M36">
+      <c r="M36" s="1">
         <f>K36/I36</f>
         <v>0</v>
       </c>
-      <c r="N36">
+      <c r="N36" s="1">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="O36">
+      <c r="O36" s="1">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A37" s="17">
+      <c r="A37" s="8">
         <v>650</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D37" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E37" s="2">
+      <c r="D37" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E37" s="9">
         <v>19</v>
       </c>
-      <c r="F37">
-        <v>0</v>
-      </c>
-      <c r="G37">
-        <v>0</v>
-      </c>
-      <c r="H37">
+      <c r="F37" s="1">
+        <v>0</v>
+      </c>
+      <c r="G37" s="1">
+        <v>0</v>
+      </c>
+      <c r="H37" s="1">
         <v>47</v>
       </c>
-      <c r="I37" s="6">
+      <c r="I37" s="4">
         <v>377.572</v>
       </c>
-      <c r="J37" t="s">
-        <v>39</v>
-      </c>
-      <c r="K37">
-        <v>0</v>
-      </c>
-      <c r="L37" t="s">
+      <c r="J37" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K37" s="1">
+        <v>0</v>
+      </c>
+      <c r="L37" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="M37">
+      <c r="M37" s="1">
         <f>K37/I37</f>
         <v>0</v>
       </c>
-      <c r="N37">
+      <c r="N37" s="1">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="O37">
+      <c r="O37" s="1">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A38" s="15" t="s">
+      <c r="A38" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B38" s="3" t="s">
@@ -2491,44 +2471,44 @@
       <c r="D38" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="1">
         <v>25</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="1">
         <v>0.57677119066984384</v>
       </c>
-      <c r="G38">
+      <c r="G38" s="1">
         <v>40.2119385257662</v>
       </c>
-      <c r="H38">
+      <c r="H38" s="1">
         <v>56</v>
       </c>
-      <c r="I38" s="6">
+      <c r="I38" s="4">
         <v>2161.7629999999999</v>
       </c>
-      <c r="J38" t="s">
-        <v>39</v>
-      </c>
-      <c r="K38" s="6">
+      <c r="J38" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K38" s="4">
         <v>2625.7289999999998</v>
       </c>
-      <c r="L38" s="6">
+      <c r="L38" s="4">
         <v>2017</v>
       </c>
-      <c r="M38">
-        <v>1</v>
-      </c>
-      <c r="N38">
+      <c r="M38" s="1">
+        <v>1</v>
+      </c>
+      <c r="N38" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O38">
+      <c r="O38" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A39" s="15" t="s">
+      <c r="A39" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B39" s="3" t="s">
@@ -2540,44 +2520,44 @@
       <c r="D39" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="1">
         <v>25</v>
       </c>
-      <c r="F39">
+      <c r="F39" s="1">
         <v>0.57677119066984384</v>
       </c>
-      <c r="G39">
+      <c r="G39" s="1">
         <v>40.2119385257662</v>
       </c>
-      <c r="H39">
+      <c r="H39" s="1">
         <v>57</v>
       </c>
-      <c r="I39" s="6">
+      <c r="I39" s="4">
         <v>597.44600000000003</v>
       </c>
-      <c r="J39" t="s">
-        <v>39</v>
-      </c>
-      <c r="K39" s="6">
+      <c r="J39" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K39" s="4">
         <v>3805.3319999999999</v>
       </c>
-      <c r="L39" s="6">
+      <c r="L39" s="4">
         <v>2017</v>
       </c>
-      <c r="M39">
-        <v>1</v>
-      </c>
-      <c r="N39">
+      <c r="M39" s="1">
+        <v>1</v>
+      </c>
+      <c r="N39" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O39">
+      <c r="O39" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A40" s="15">
+      <c r="A40" s="2">
         <v>430</v>
       </c>
       <c r="B40" s="3" t="s">
@@ -2589,95 +2569,95 @@
       <c r="D40" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="1">
         <v>30</v>
       </c>
-      <c r="F40">
+      <c r="F40" s="1">
         <v>1.0228766597141277</v>
       </c>
-      <c r="G40">
+      <c r="G40" s="1">
         <v>71.313987288609795</v>
       </c>
-      <c r="H40">
+      <c r="H40" s="1">
         <v>67</v>
       </c>
-      <c r="I40" s="6">
+      <c r="I40" s="4">
         <v>2583.9029999999998</v>
       </c>
-      <c r="J40" t="s">
-        <v>39</v>
-      </c>
-      <c r="K40">
-        <v>0</v>
-      </c>
-      <c r="L40" t="s">
+      <c r="J40" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K40" s="1">
+        <v>0</v>
+      </c>
+      <c r="L40" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="M40">
+      <c r="M40" s="1">
         <f t="shared" ref="M40:M61" si="5">K40/I40</f>
         <v>0</v>
       </c>
-      <c r="N40">
+      <c r="N40" s="1">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="O40">
+      <c r="O40" s="1">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A41" s="15" t="s">
+      <c r="A41" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C41" s="2" t="s">
         <v>54</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="1">
         <v>25</v>
       </c>
-      <c r="F41">
+      <c r="F41" s="1">
         <v>0.57677119066984384</v>
       </c>
-      <c r="G41">
+      <c r="G41" s="1">
         <v>40.2119385257662</v>
       </c>
-      <c r="H41">
+      <c r="H41" s="1">
         <v>9</v>
       </c>
-      <c r="I41" s="6">
+      <c r="I41" s="4">
         <v>2346.799</v>
       </c>
-      <c r="J41" t="s">
-        <v>39</v>
-      </c>
-      <c r="K41" s="6">
+      <c r="J41" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K41" s="4">
         <v>1553.24</v>
       </c>
-      <c r="L41" s="6">
+      <c r="L41" s="4">
         <v>2017</v>
       </c>
-      <c r="M41">
+      <c r="M41" s="1">
         <f t="shared" si="5"/>
         <v>0.66185472211297181</v>
       </c>
-      <c r="N41">
+      <c r="N41" s="1">
         <f t="shared" si="3"/>
         <v>33.814527788702819</v>
       </c>
-      <c r="O41">
+      <c r="O41" s="1">
         <f t="shared" si="4"/>
         <v>0.33814527788702819</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A42" s="15" t="s">
+      <c r="A42" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B42" s="3" t="s">
@@ -2689,45 +2669,45 @@
       <c r="D42" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="1">
         <v>25</v>
       </c>
-      <c r="F42">
+      <c r="F42" s="1">
         <v>0.57677119066984384</v>
       </c>
-      <c r="G42">
+      <c r="G42" s="1">
         <v>40.2119385257662</v>
       </c>
-      <c r="H42">
+      <c r="H42" s="1">
         <v>10</v>
       </c>
-      <c r="I42" s="6">
+      <c r="I42" s="4">
         <v>1188.6990000000001</v>
       </c>
-      <c r="J42" t="s">
-        <v>39</v>
-      </c>
-      <c r="K42" s="6">
+      <c r="J42" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K42" s="4">
         <v>499.46100000000001</v>
       </c>
-      <c r="L42" s="6">
+      <c r="L42" s="4">
         <v>2017</v>
       </c>
-      <c r="M42">
+      <c r="M42" s="1">
         <f t="shared" si="5"/>
         <v>0.42017449329056389</v>
       </c>
-      <c r="N42">
+      <c r="N42" s="1">
         <f t="shared" si="3"/>
         <v>57.98255067094361</v>
       </c>
-      <c r="O42">
+      <c r="O42" s="1">
         <f t="shared" si="4"/>
         <v>0.57982550670943611</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A43" s="15">
+      <c r="A43" s="2">
         <v>46</v>
       </c>
       <c r="B43" s="3" t="s">
@@ -2739,45 +2719,45 @@
       <c r="D43" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E43">
+      <c r="E43" s="1">
         <v>27</v>
       </c>
-      <c r="F43">
+      <c r="F43" s="1">
         <v>1.2234667187215671</v>
       </c>
-      <c r="G43">
+      <c r="G43" s="1">
         <v>85.298935309885323</v>
       </c>
-      <c r="H43">
+      <c r="H43" s="1">
         <v>63</v>
       </c>
-      <c r="I43" s="6">
+      <c r="I43" s="4">
         <v>172.67500000000001</v>
       </c>
-      <c r="J43" t="s">
-        <v>39</v>
-      </c>
-      <c r="K43">
-        <v>0</v>
-      </c>
-      <c r="L43" t="s">
+      <c r="J43" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K43" s="1">
+        <v>0</v>
+      </c>
+      <c r="L43" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="M43">
+      <c r="M43" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N43">
+      <c r="N43" s="1">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="O43">
+      <c r="O43" s="1">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A44" s="15">
+      <c r="A44" s="2">
         <v>723</v>
       </c>
       <c r="B44" s="3" t="s">
@@ -2789,45 +2769,45 @@
       <c r="D44" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E44">
+      <c r="E44" s="1">
         <v>27</v>
       </c>
-      <c r="F44">
+      <c r="F44" s="1">
         <v>1.2234667187215671</v>
       </c>
-      <c r="G44">
+      <c r="G44" s="1">
         <v>85.298935309885323</v>
       </c>
-      <c r="H44">
+      <c r="H44" s="1">
         <v>23</v>
       </c>
-      <c r="I44" s="6">
+      <c r="I44" s="4">
         <v>339.81900000000002</v>
       </c>
-      <c r="J44" t="s">
-        <v>39</v>
-      </c>
-      <c r="K44">
-        <v>0</v>
-      </c>
-      <c r="L44" t="s">
+      <c r="J44" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K44" s="1">
+        <v>0</v>
+      </c>
+      <c r="L44" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="M44">
+      <c r="M44" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N44">
+      <c r="N44" s="1">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="O44">
+      <c r="O44" s="1">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A45" s="15">
+      <c r="A45" s="2">
         <v>476</v>
       </c>
       <c r="B45" s="3" t="s">
@@ -2839,45 +2819,45 @@
       <c r="D45" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E45">
+      <c r="E45" s="1">
         <v>27</v>
       </c>
-      <c r="F45">
+      <c r="F45" s="1">
         <v>1.2234667187215671</v>
       </c>
-      <c r="G45">
+      <c r="G45" s="1">
         <v>85.298935309885323</v>
       </c>
-      <c r="H45">
+      <c r="H45" s="1">
         <v>34</v>
       </c>
-      <c r="I45" s="6">
+      <c r="I45" s="4">
         <v>149.65899999999999</v>
       </c>
-      <c r="J45" t="s">
-        <v>39</v>
-      </c>
-      <c r="K45">
-        <v>0</v>
-      </c>
-      <c r="L45" s="6" t="s">
+      <c r="J45" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K45" s="1">
+        <v>0</v>
+      </c>
+      <c r="L45" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="M45">
+      <c r="M45" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N45">
+      <c r="N45" s="1">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="O45">
+      <c r="O45" s="1">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A46" s="15">
+      <c r="A46" s="2">
         <v>489</v>
       </c>
       <c r="B46" s="3" t="s">
@@ -2889,45 +2869,45 @@
       <c r="D46" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E46">
+      <c r="E46" s="1">
         <v>32</v>
       </c>
-      <c r="F46">
-        <v>1</v>
-      </c>
-      <c r="G46">
+      <c r="F46" s="1">
+        <v>1</v>
+      </c>
+      <c r="G46" s="1">
         <v>69.719048344050137</v>
       </c>
-      <c r="H46">
-        <v>35</v>
-      </c>
-      <c r="I46" s="6">
+      <c r="H46" s="1">
+        <v>35</v>
+      </c>
+      <c r="I46" s="4">
         <v>260.19099999999997</v>
       </c>
-      <c r="J46" t="s">
-        <v>39</v>
-      </c>
-      <c r="K46">
-        <v>0</v>
-      </c>
-      <c r="L46" s="6" t="s">
+      <c r="J46" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K46" s="1">
+        <v>0</v>
+      </c>
+      <c r="L46" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="M46">
+      <c r="M46" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N46">
+      <c r="N46" s="1">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="O46">
+      <c r="O46" s="1">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A47" s="15" t="s">
+      <c r="A47" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B47" s="3" t="s">
@@ -2939,95 +2919,95 @@
       <c r="D47" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E47">
+      <c r="E47" s="1">
         <v>27</v>
       </c>
-      <c r="F47">
+      <c r="F47" s="1">
         <v>1.2234667187215671</v>
       </c>
-      <c r="G47">
+      <c r="G47" s="1">
         <v>85.298935309885294</v>
       </c>
-      <c r="H47">
+      <c r="H47" s="1">
         <v>45</v>
       </c>
-      <c r="I47" s="7">
+      <c r="I47" s="5">
         <v>175.03399999999999</v>
       </c>
-      <c r="J47" t="s">
-        <v>39</v>
-      </c>
-      <c r="K47">
-        <v>0</v>
-      </c>
-      <c r="L47" s="6" t="s">
+      <c r="J47" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K47" s="1">
+        <v>0</v>
+      </c>
+      <c r="L47" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="M47">
+      <c r="M47" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N47">
+      <c r="N47" s="1">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="O47">
+      <c r="O47" s="1">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="15">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A48" s="2">
         <v>441</v>
       </c>
-      <c r="B48" s="10" t="s">
+      <c r="B48" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C48" s="10" t="s">
+      <c r="C48" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D48" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="E48" s="5">
+      <c r="D48" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E48" s="1">
         <v>30</v>
       </c>
-      <c r="F48" s="5">
+      <c r="F48" s="1">
         <v>1.0228766597141277</v>
       </c>
-      <c r="G48" s="5">
+      <c r="G48" s="1">
         <v>71.313987288609795</v>
       </c>
-      <c r="H48" s="5">
+      <c r="H48" s="1">
         <v>77</v>
       </c>
-      <c r="I48" s="12">
+      <c r="I48" s="5">
         <v>2309.6770000000001</v>
       </c>
-      <c r="J48" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="K48" s="11">
-        <v>0</v>
-      </c>
-      <c r="L48" s="11" t="s">
+      <c r="J48" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K48" s="4">
+        <v>0</v>
+      </c>
+      <c r="L48" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="M48" s="5">
+      <c r="M48" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N48" s="5">
+      <c r="N48" s="1">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="O48" s="5">
+      <c r="O48" s="1">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A49" s="15">
+      <c r="A49" s="2">
         <v>144</v>
       </c>
       <c r="B49" s="3" t="s">
@@ -3039,45 +3019,45 @@
       <c r="D49" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E49">
+      <c r="E49" s="1">
         <v>30</v>
       </c>
-      <c r="F49">
+      <c r="F49" s="1">
         <v>1.0228766597141277</v>
       </c>
-      <c r="G49">
+      <c r="G49" s="1">
         <v>71.313987288609795</v>
       </c>
-      <c r="H49">
+      <c r="H49" s="1">
         <v>66</v>
       </c>
-      <c r="I49" s="6">
+      <c r="I49" s="4">
         <v>308.78800000000001</v>
       </c>
-      <c r="J49" t="s">
-        <v>39</v>
-      </c>
-      <c r="K49">
-        <v>0</v>
-      </c>
-      <c r="L49" t="s">
+      <c r="J49" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K49" s="1">
+        <v>0</v>
+      </c>
+      <c r="L49" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="M49">
+      <c r="M49" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N49">
+      <c r="N49" s="1">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="O49">
+      <c r="O49" s="1">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A50" s="15">
+      <c r="A50" s="2">
         <v>434</v>
       </c>
       <c r="B50" s="3" t="s">
@@ -3089,45 +3069,45 @@
       <c r="D50" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E50">
+      <c r="E50" s="1">
         <v>30</v>
       </c>
-      <c r="F50">
+      <c r="F50" s="1">
         <v>1.0228766597141277</v>
       </c>
-      <c r="G50">
+      <c r="G50" s="1">
         <v>71.313987288609795</v>
       </c>
-      <c r="H50">
+      <c r="H50" s="1">
         <v>68</v>
       </c>
-      <c r="I50" s="6">
+      <c r="I50" s="4">
         <v>777.74900000000002</v>
       </c>
-      <c r="J50" t="s">
-        <v>39</v>
-      </c>
-      <c r="K50">
-        <v>0</v>
-      </c>
-      <c r="L50" t="s">
+      <c r="J50" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K50" s="1">
+        <v>0</v>
+      </c>
+      <c r="L50" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="M50">
+      <c r="M50" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N50">
+      <c r="N50" s="1">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="O50">
+      <c r="O50" s="1">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A51" s="15" t="s">
+      <c r="A51" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B51" s="3" t="s">
@@ -3139,45 +3119,45 @@
       <c r="D51" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E51">
+      <c r="E51" s="1">
         <v>30</v>
       </c>
-      <c r="F51">
+      <c r="F51" s="1">
         <v>1.0228766597141277</v>
       </c>
-      <c r="G51">
+      <c r="G51" s="1">
         <v>71.313987288609795</v>
       </c>
-      <c r="H51">
+      <c r="H51" s="1">
         <v>74</v>
       </c>
-      <c r="I51" s="6">
+      <c r="I51" s="4">
         <v>2170.3000000000002</v>
       </c>
-      <c r="J51" t="s">
-        <v>39</v>
-      </c>
-      <c r="K51">
-        <v>0</v>
-      </c>
-      <c r="L51" t="s">
+      <c r="J51" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K51" s="1">
+        <v>0</v>
+      </c>
+      <c r="L51" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="M51">
+      <c r="M51" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N51">
+      <c r="N51" s="1">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="O51">
+      <c r="O51" s="1">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A52" s="15">
+      <c r="A52" s="2">
         <v>151</v>
       </c>
       <c r="B52" s="3" t="s">
@@ -3189,45 +3169,45 @@
       <c r="D52" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E52">
+      <c r="E52" s="1">
         <v>30</v>
       </c>
-      <c r="F52">
+      <c r="F52" s="1">
         <v>1.0228766597141277</v>
       </c>
-      <c r="G52">
+      <c r="G52" s="1">
         <v>71.313987288609795</v>
       </c>
-      <c r="H52">
+      <c r="H52" s="1">
         <v>76</v>
       </c>
-      <c r="I52" s="6">
+      <c r="I52" s="4">
         <v>696.55499999999995</v>
       </c>
-      <c r="J52" t="s">
-        <v>39</v>
-      </c>
-      <c r="K52">
-        <v>0</v>
-      </c>
-      <c r="L52" t="s">
+      <c r="J52" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K52" s="1">
+        <v>0</v>
+      </c>
+      <c r="L52" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="M52">
+      <c r="M52" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N52">
+      <c r="N52" s="1">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="O52">
+      <c r="O52" s="1">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A53" s="15">
+      <c r="A53" s="2">
         <v>136</v>
       </c>
       <c r="B53" s="3" t="s">
@@ -3239,95 +3219,95 @@
       <c r="D53" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E53">
+      <c r="E53" s="1">
         <v>30</v>
       </c>
-      <c r="F53">
+      <c r="F53" s="1">
         <v>1.0228766597141277</v>
       </c>
-      <c r="G53">
+      <c r="G53" s="1">
         <v>71.313987288609795</v>
       </c>
-      <c r="H53">
+      <c r="H53" s="1">
         <v>18</v>
       </c>
-      <c r="I53" s="6">
+      <c r="I53" s="4">
         <v>1548.17</v>
       </c>
-      <c r="J53" t="s">
-        <v>39</v>
-      </c>
-      <c r="K53">
-        <v>0</v>
-      </c>
-      <c r="L53" t="s">
+      <c r="J53" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K53" s="1">
+        <v>0</v>
+      </c>
+      <c r="L53" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="M53">
+      <c r="M53" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N53">
+      <c r="N53" s="1">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="O53">
+      <c r="O53" s="1">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A54" s="15">
+      <c r="A54" s="2">
         <v>874</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C54" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E54">
-        <v>35</v>
-      </c>
-      <c r="F54">
+      <c r="E54" s="1">
+        <v>35</v>
+      </c>
+      <c r="F54" s="1">
         <v>0.49951460519109475</v>
       </c>
-      <c r="G54">
+      <c r="G54" s="1">
         <v>34.825682907877052</v>
       </c>
-      <c r="H54">
+      <c r="H54" s="1">
         <v>19</v>
       </c>
-      <c r="I54" s="6">
+      <c r="I54" s="4">
         <v>185.67500000000001</v>
       </c>
-      <c r="J54" t="s">
-        <v>39</v>
-      </c>
-      <c r="K54">
-        <v>0</v>
-      </c>
-      <c r="L54" t="s">
+      <c r="J54" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K54" s="1">
+        <v>0</v>
+      </c>
+      <c r="L54" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="M54">
+      <c r="M54" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N54">
+      <c r="N54" s="1">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="O54">
+      <c r="O54" s="1">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A55" s="15">
+      <c r="A55" s="2">
         <v>172</v>
       </c>
       <c r="B55" s="3" t="s">
@@ -3339,46 +3319,46 @@
       <c r="D55" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E55" s="4">
+      <c r="E55" s="6">
         <v>3</v>
       </c>
-      <c r="F55">
+      <c r="F55" s="1">
         <v>0.40785196721995665</v>
       </c>
-      <c r="G55">
+      <c r="G55" s="1">
         <v>28.435051019824108</v>
       </c>
-      <c r="H55">
+      <c r="H55" s="1">
         <v>28</v>
       </c>
-      <c r="I55" s="6">
+      <c r="I55" s="4">
         <v>661.64200000000005</v>
       </c>
-      <c r="J55" t="s">
-        <v>39</v>
-      </c>
-      <c r="K55" s="6">
+      <c r="J55" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K55" s="4">
         <f>16.98+124.539+112.063+1.231+2.233</f>
         <v>257.04599999999999</v>
       </c>
-      <c r="L55" s="6">
+      <c r="L55" s="4">
         <v>2017</v>
       </c>
-      <c r="M55">
+      <c r="M55" s="1">
         <f t="shared" si="5"/>
         <v>0.38849710266276927</v>
       </c>
-      <c r="N55">
+      <c r="N55" s="1">
         <f t="shared" si="3"/>
         <v>61.150289733723071</v>
       </c>
-      <c r="O55">
+      <c r="O55" s="1">
         <f t="shared" si="4"/>
         <v>0.61150289733723073</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A56" s="15" t="s">
+      <c r="A56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B56" s="3" t="s">
@@ -3390,45 +3370,45 @@
       <c r="D56" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E56">
+      <c r="E56" s="1">
         <v>30</v>
       </c>
-      <c r="F56">
+      <c r="F56" s="1">
         <v>1.0228766597141277</v>
       </c>
-      <c r="G56">
+      <c r="G56" s="1">
         <v>71.313987288609795</v>
       </c>
-      <c r="H56">
+      <c r="H56" s="1">
         <v>44</v>
       </c>
-      <c r="I56" s="6">
+      <c r="I56" s="4">
         <v>1459.0619999999999</v>
       </c>
-      <c r="J56" t="s">
-        <v>39</v>
-      </c>
-      <c r="K56">
-        <v>0</v>
-      </c>
-      <c r="L56" s="6" t="s">
+      <c r="J56" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K56" s="1">
+        <v>0</v>
+      </c>
+      <c r="L56" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="M56">
+      <c r="M56" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N56">
+      <c r="N56" s="1">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="O56">
+      <c r="O56" s="1">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A57" s="15" t="s">
+      <c r="A57" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B57" s="3" t="s">
@@ -3440,45 +3420,45 @@
       <c r="D57" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E57">
+      <c r="E57" s="1">
         <v>32</v>
       </c>
-      <c r="F57">
-        <v>1</v>
-      </c>
-      <c r="G57">
+      <c r="F57" s="1">
+        <v>1</v>
+      </c>
+      <c r="G57" s="1">
         <v>69.719048344050137</v>
       </c>
-      <c r="H57">
+      <c r="H57" s="1">
         <v>75</v>
       </c>
-      <c r="I57" s="6">
+      <c r="I57" s="4">
         <v>190.31800000000001</v>
       </c>
-      <c r="J57" t="s">
-        <v>39</v>
-      </c>
-      <c r="K57">
-        <v>0</v>
-      </c>
-      <c r="L57" t="s">
+      <c r="J57" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K57" s="1">
+        <v>0</v>
+      </c>
+      <c r="L57" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="M57">
+      <c r="M57" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N57">
+      <c r="N57" s="1">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="O57">
+      <c r="O57" s="1">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A58" s="15">
+      <c r="A58" s="2">
         <v>499</v>
       </c>
       <c r="B58" s="3" t="s">
@@ -3490,95 +3470,95 @@
       <c r="D58" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E58">
+      <c r="E58" s="1">
         <v>32</v>
       </c>
-      <c r="F58">
-        <v>1</v>
-      </c>
-      <c r="G58">
+      <c r="F58" s="1">
+        <v>1</v>
+      </c>
+      <c r="G58" s="1">
         <v>69.719048344050137</v>
       </c>
-      <c r="H58">
+      <c r="H58" s="1">
         <v>20</v>
       </c>
-      <c r="I58" s="6">
+      <c r="I58" s="4">
         <v>310.077</v>
       </c>
-      <c r="J58" t="s">
-        <v>39</v>
-      </c>
-      <c r="K58">
-        <v>0</v>
-      </c>
-      <c r="L58" t="s">
+      <c r="J58" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K58" s="1">
+        <v>0</v>
+      </c>
+      <c r="L58" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="M58">
+      <c r="M58" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N58">
+      <c r="N58" s="1">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="O58">
+      <c r="O58" s="1">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A59" s="15">
+      <c r="A59" s="2">
         <v>752</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="C59" s="2" t="s">
         <v>54</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E59">
+      <c r="E59" s="1">
         <v>32</v>
       </c>
-      <c r="F59">
-        <v>1</v>
-      </c>
-      <c r="G59">
+      <c r="F59" s="1">
+        <v>1</v>
+      </c>
+      <c r="G59" s="1">
         <v>69.719048344050137</v>
       </c>
-      <c r="H59">
+      <c r="H59" s="1">
         <v>24</v>
       </c>
-      <c r="I59" s="6">
+      <c r="I59" s="4">
         <v>311.13</v>
       </c>
-      <c r="J59" t="s">
-        <v>39</v>
-      </c>
-      <c r="K59">
-        <v>0</v>
-      </c>
-      <c r="L59" t="s">
+      <c r="J59" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K59" s="1">
+        <v>0</v>
+      </c>
+      <c r="L59" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="M59">
+      <c r="M59" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N59">
+      <c r="N59" s="1">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="O59">
+      <c r="O59" s="1">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A60" s="15">
+      <c r="A60" s="2">
         <v>753</v>
       </c>
       <c r="B60" s="3" t="s">
@@ -3590,95 +3570,95 @@
       <c r="D60" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E60">
+      <c r="E60" s="1">
         <v>32</v>
       </c>
-      <c r="F60">
-        <v>1</v>
-      </c>
-      <c r="G60">
+      <c r="F60" s="1">
+        <v>1</v>
+      </c>
+      <c r="G60" s="1">
         <v>69.719048344050137</v>
       </c>
-      <c r="H60">
+      <c r="H60" s="1">
         <v>25</v>
       </c>
-      <c r="I60" s="7">
+      <c r="I60" s="5">
         <v>497.09699999999998</v>
       </c>
-      <c r="J60" t="s">
-        <v>39</v>
-      </c>
-      <c r="K60">
-        <v>0</v>
-      </c>
-      <c r="L60" t="s">
+      <c r="J60" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K60" s="1">
+        <v>0</v>
+      </c>
+      <c r="L60" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="M60">
+      <c r="M60" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N60">
+      <c r="N60" s="1">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="O60">
+      <c r="O60" s="1">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A61" s="17">
+      <c r="A61" s="8">
         <v>758</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B61" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="C61" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D61" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E61" s="2">
+      <c r="D61" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E61" s="9">
         <v>32</v>
       </c>
-      <c r="F61">
-        <v>1</v>
-      </c>
-      <c r="G61">
+      <c r="F61" s="1">
+        <v>1</v>
+      </c>
+      <c r="G61" s="1">
         <v>69.719048344050137</v>
       </c>
-      <c r="H61">
+      <c r="H61" s="1">
         <v>27</v>
       </c>
-      <c r="I61" s="6">
+      <c r="I61" s="4">
         <v>180.304</v>
       </c>
-      <c r="J61" t="s">
-        <v>39</v>
-      </c>
-      <c r="K61">
-        <v>0</v>
-      </c>
-      <c r="L61" t="s">
+      <c r="J61" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K61" s="1">
+        <v>0</v>
+      </c>
+      <c r="L61" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="M61">
+      <c r="M61" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N61">
+      <c r="N61" s="1">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="O61">
+      <c r="O61" s="1">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A62" s="15" t="s">
+      <c r="A62" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B62" s="3" t="s">
@@ -3690,44 +3670,44 @@
       <c r="D62" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E62">
+      <c r="E62" s="1">
         <v>34</v>
       </c>
-      <c r="F62">
+      <c r="F62" s="1">
         <v>0.49951460519109475</v>
       </c>
-      <c r="G62">
+      <c r="G62" s="1">
         <v>34.825682907877052</v>
       </c>
-      <c r="H62">
+      <c r="H62" s="1">
         <v>61</v>
       </c>
-      <c r="I62" s="7">
+      <c r="I62" s="5">
         <v>543.81500000000005</v>
       </c>
-      <c r="J62" t="s">
-        <v>39</v>
-      </c>
-      <c r="K62" s="6">
+      <c r="J62" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K62" s="4">
         <v>731.67200000000003</v>
       </c>
-      <c r="L62" s="6">
+      <c r="L62" s="4">
         <v>2017</v>
       </c>
-      <c r="M62">
-        <v>1</v>
-      </c>
-      <c r="N62">
+      <c r="M62" s="1">
+        <v>1</v>
+      </c>
+      <c r="N62" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O62">
+      <c r="O62" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A63" s="15">
+      <c r="A63" s="2">
         <v>853</v>
       </c>
       <c r="B63" s="3" t="s">
@@ -3739,45 +3719,45 @@
       <c r="D63" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E63">
+      <c r="E63" s="1">
         <v>34</v>
       </c>
-      <c r="F63">
+      <c r="F63" s="1">
         <v>0.49951460519109475</v>
       </c>
-      <c r="G63">
+      <c r="G63" s="1">
         <v>34.825682907877052</v>
       </c>
-      <c r="H63">
+      <c r="H63" s="1">
         <v>51</v>
       </c>
-      <c r="I63" s="6">
+      <c r="I63" s="4">
         <v>1256.04</v>
       </c>
-      <c r="J63" t="s">
-        <v>39</v>
-      </c>
-      <c r="K63" s="6">
+      <c r="J63" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K63" s="4">
         <v>1159.288</v>
       </c>
-      <c r="L63" s="6">
+      <c r="L63" s="4">
         <v>2017</v>
       </c>
-      <c r="M63">
+      <c r="M63" s="1">
         <f t="shared" ref="M63:M80" si="6">K63/I63</f>
         <v>0.92297060603165504</v>
       </c>
-      <c r="N63">
+      <c r="N63" s="1">
         <f t="shared" si="3"/>
         <v>7.7029393968344966</v>
       </c>
-      <c r="O63">
+      <c r="O63" s="1">
         <f t="shared" si="4"/>
         <v>7.7029393968344961E-2</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A64" s="15" t="s">
+      <c r="A64" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B64" s="3" t="s">
@@ -3789,45 +3769,45 @@
       <c r="D64" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E64">
+      <c r="E64" s="1">
         <v>34</v>
       </c>
-      <c r="F64">
+      <c r="F64" s="1">
         <v>0.49951460519109475</v>
       </c>
-      <c r="G64">
+      <c r="G64" s="1">
         <v>34.825682907877052</v>
       </c>
-      <c r="H64">
+      <c r="H64" s="1">
         <v>55</v>
       </c>
-      <c r="I64" s="6">
+      <c r="I64" s="4">
         <v>3879.4160000000002</v>
       </c>
-      <c r="J64" t="s">
-        <v>39</v>
-      </c>
-      <c r="K64" s="6">
+      <c r="J64" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K64" s="4">
         <v>2554.8710000000001</v>
       </c>
-      <c r="L64" s="6">
+      <c r="L64" s="4">
         <v>2017</v>
       </c>
-      <c r="M64">
+      <c r="M64" s="1">
         <f t="shared" si="6"/>
         <v>0.65857103234095027</v>
       </c>
-      <c r="N64">
+      <c r="N64" s="1">
         <f t="shared" si="3"/>
         <v>34.142896765904972</v>
       </c>
-      <c r="O64">
+      <c r="O64" s="1">
         <f t="shared" si="4"/>
         <v>0.34142896765904973</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A65" s="15">
+      <c r="A65" s="2">
         <v>847</v>
       </c>
       <c r="B65" s="3" t="s">
@@ -3839,45 +3819,45 @@
       <c r="D65" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E65">
+      <c r="E65" s="1">
         <v>34</v>
       </c>
-      <c r="F65">
+      <c r="F65" s="1">
         <v>0.49951460519109475</v>
       </c>
-      <c r="G65">
+      <c r="G65" s="1">
         <v>34.825682907877052</v>
       </c>
-      <c r="H65">
+      <c r="H65" s="1">
         <v>71</v>
       </c>
-      <c r="I65" s="6">
+      <c r="I65" s="4">
         <v>1875.9690000000001</v>
       </c>
-      <c r="J65" t="s">
-        <v>39</v>
-      </c>
-      <c r="K65">
-        <v>0</v>
-      </c>
-      <c r="L65" t="s">
+      <c r="J65" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K65" s="1">
+        <v>0</v>
+      </c>
+      <c r="L65" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="M65">
+      <c r="M65" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="N65">
+      <c r="N65" s="1">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="O65">
+      <c r="O65" s="1">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A66" s="15">
+      <c r="A66" s="2">
         <v>782</v>
       </c>
       <c r="B66" s="3" t="s">
@@ -3889,45 +3869,45 @@
       <c r="D66" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E66">
+      <c r="E66" s="1">
         <v>34</v>
       </c>
-      <c r="F66">
+      <c r="F66" s="1">
         <v>0.49951460519109475</v>
       </c>
-      <c r="G66">
+      <c r="G66" s="1">
         <v>34.825682907877052</v>
       </c>
-      <c r="H66">
+      <c r="H66" s="1">
         <v>26</v>
       </c>
-      <c r="I66" s="6">
+      <c r="I66" s="4">
         <v>637.79100000000005</v>
       </c>
-      <c r="J66" t="s">
-        <v>39</v>
-      </c>
-      <c r="K66">
-        <v>0</v>
-      </c>
-      <c r="L66" t="s">
+      <c r="J66" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K66" s="1">
+        <v>0</v>
+      </c>
+      <c r="L66" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="M66">
+      <c r="M66" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="N66">
+      <c r="N66" s="1">
         <f t="shared" ref="N66:N80" si="7">(1-M66)*100</f>
         <v>100</v>
       </c>
-      <c r="O66">
+      <c r="O66" s="1">
         <f t="shared" ref="O66:O80" si="8">N66/100</f>
         <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A67" s="15">
+      <c r="A67" s="2">
         <v>859</v>
       </c>
       <c r="B67" s="3" t="s">
@@ -3939,45 +3919,45 @@
       <c r="D67" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E67">
+      <c r="E67" s="1">
         <v>34</v>
       </c>
-      <c r="F67">
+      <c r="F67" s="1">
         <v>0.49951460519109475</v>
       </c>
-      <c r="G67">
+      <c r="G67" s="1">
         <v>34.825682907877052</v>
       </c>
-      <c r="H67">
+      <c r="H67" s="1">
         <v>29</v>
       </c>
-      <c r="I67" s="7">
+      <c r="I67" s="5">
         <v>1176.7539999999999</v>
       </c>
-      <c r="J67" t="s">
-        <v>39</v>
-      </c>
-      <c r="K67" s="6">
+      <c r="J67" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K67" s="4">
         <v>12.07</v>
       </c>
-      <c r="L67" s="6">
+      <c r="L67" s="4">
         <v>2017</v>
       </c>
-      <c r="M67">
+      <c r="M67" s="1">
         <f t="shared" si="6"/>
         <v>1.0257029081694222E-2</v>
       </c>
-      <c r="N67">
+      <c r="N67" s="1">
         <f t="shared" si="7"/>
         <v>98.974297091830579</v>
       </c>
-      <c r="O67">
+      <c r="O67" s="1">
         <f t="shared" si="8"/>
         <v>0.98974297091830576</v>
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A68" s="15">
+      <c r="A68" s="2">
         <v>401</v>
       </c>
       <c r="B68" s="3" t="s">
@@ -3989,45 +3969,45 @@
       <c r="D68" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E68">
+      <c r="E68" s="1">
         <v>30</v>
       </c>
-      <c r="F68">
+      <c r="F68" s="1">
         <v>1.0228766597141277</v>
       </c>
-      <c r="G68">
+      <c r="G68" s="1">
         <v>71.313987288609795</v>
       </c>
-      <c r="H68">
+      <c r="H68" s="1">
         <v>33</v>
       </c>
-      <c r="I68" s="6">
+      <c r="I68" s="4">
         <v>1595.643</v>
       </c>
-      <c r="J68" t="s">
-        <v>39</v>
-      </c>
-      <c r="K68">
-        <v>0</v>
-      </c>
-      <c r="L68" s="6" t="s">
+      <c r="J68" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K68" s="1">
+        <v>0</v>
+      </c>
+      <c r="L68" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="M68">
+      <c r="M68" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="N68">
+      <c r="N68" s="1">
         <f t="shared" si="7"/>
         <v>100</v>
       </c>
-      <c r="O68">
+      <c r="O68" s="1">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A69" s="15" t="s">
+      <c r="A69" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B69" s="3" t="s">
@@ -4039,45 +4019,45 @@
       <c r="D69" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E69">
+      <c r="E69" s="1">
         <v>34</v>
       </c>
-      <c r="F69">
+      <c r="F69" s="1">
         <v>0.49951460519109475</v>
       </c>
-      <c r="G69">
+      <c r="G69" s="1">
         <v>34.825682907877052</v>
       </c>
-      <c r="H69">
+      <c r="H69" s="1">
         <v>43</v>
       </c>
-      <c r="I69" s="6">
+      <c r="I69" s="4">
         <v>778.15700000000004</v>
       </c>
-      <c r="J69" t="s">
-        <v>39</v>
-      </c>
-      <c r="K69">
-        <v>0</v>
-      </c>
-      <c r="L69" t="s">
+      <c r="J69" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K69" s="1">
+        <v>0</v>
+      </c>
+      <c r="L69" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="M69">
+      <c r="M69" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="N69">
+      <c r="N69" s="1">
         <f t="shared" si="7"/>
         <v>100</v>
       </c>
-      <c r="O69">
+      <c r="O69" s="1">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A70" s="15">
+      <c r="A70" s="2">
         <v>5</v>
       </c>
       <c r="B70" s="3" t="s">
@@ -4089,45 +4069,45 @@
       <c r="D70" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E70">
-        <v>35</v>
-      </c>
-      <c r="F70">
+      <c r="E70" s="1">
+        <v>35</v>
+      </c>
+      <c r="F70" s="1">
         <v>0.49951460519109475</v>
       </c>
-      <c r="G70">
+      <c r="G70" s="1">
         <v>34.825682907877052</v>
       </c>
-      <c r="H70">
+      <c r="H70" s="1">
         <v>48</v>
       </c>
-      <c r="I70" s="6">
+      <c r="I70" s="4">
         <v>1534.9290000000001</v>
       </c>
-      <c r="J70" t="s">
-        <v>39</v>
-      </c>
-      <c r="K70" s="6">
+      <c r="J70" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K70" s="4">
         <v>315.66500000000002</v>
       </c>
-      <c r="L70" t="s">
+      <c r="L70" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="M70">
+      <c r="M70" s="1">
         <f t="shared" si="6"/>
         <v>0.20565446349635716</v>
       </c>
-      <c r="N70">
+      <c r="N70" s="1">
         <f t="shared" si="7"/>
         <v>79.434553650364279</v>
       </c>
-      <c r="O70">
+      <c r="O70" s="1">
         <f t="shared" si="8"/>
         <v>0.79434553650364281</v>
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A71" s="15" t="s">
+      <c r="A71" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B71" s="3" t="s">
@@ -4139,45 +4119,45 @@
       <c r="D71" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E71">
-        <v>35</v>
-      </c>
-      <c r="F71">
+      <c r="E71" s="1">
+        <v>35</v>
+      </c>
+      <c r="F71" s="1">
         <v>0.49951460519109475</v>
       </c>
-      <c r="G71">
+      <c r="G71" s="1">
         <v>34.825682907877052</v>
       </c>
-      <c r="H71">
+      <c r="H71" s="1">
         <v>62</v>
       </c>
-      <c r="I71" s="6">
+      <c r="I71" s="4">
         <v>714.16499999999996</v>
       </c>
-      <c r="J71" t="s">
-        <v>39</v>
-      </c>
-      <c r="K71" s="6">
+      <c r="J71" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K71" s="4">
         <v>193.78700000000001</v>
       </c>
-      <c r="L71" s="6">
+      <c r="L71" s="4">
         <v>2017</v>
       </c>
-      <c r="M71">
+      <c r="M71" s="1">
         <f t="shared" si="6"/>
         <v>0.27134765775416048</v>
       </c>
-      <c r="N71">
+      <c r="N71" s="1">
         <f t="shared" si="7"/>
         <v>72.865234224583958</v>
       </c>
-      <c r="O71">
+      <c r="O71" s="1">
         <f t="shared" si="8"/>
         <v>0.72865234224583952</v>
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A72" s="15">
+      <c r="A72" s="2">
         <v>97</v>
       </c>
       <c r="B72" s="3" t="s">
@@ -4189,45 +4169,45 @@
       <c r="D72" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E72">
-        <v>35</v>
-      </c>
-      <c r="F72">
+      <c r="E72" s="1">
+        <v>35</v>
+      </c>
+      <c r="F72" s="1">
         <v>0.49951460519109475</v>
       </c>
-      <c r="G72">
+      <c r="G72" s="1">
         <v>34.825682907877052</v>
       </c>
-      <c r="H72">
+      <c r="H72" s="1">
         <v>64</v>
       </c>
-      <c r="I72" s="6">
+      <c r="I72" s="4">
         <v>3870.453</v>
       </c>
-      <c r="J72" t="s">
-        <v>39</v>
-      </c>
-      <c r="K72">
-        <v>0</v>
-      </c>
-      <c r="L72" t="s">
+      <c r="J72" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K72" s="1">
+        <v>0</v>
+      </c>
+      <c r="L72" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="M72">
+      <c r="M72" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="N72">
+      <c r="N72" s="1">
         <f t="shared" si="7"/>
         <v>100</v>
       </c>
-      <c r="O72">
+      <c r="O72" s="1">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A73" s="15">
+      <c r="A73" s="2">
         <v>119</v>
       </c>
       <c r="B73" s="3" t="s">
@@ -4239,45 +4219,45 @@
       <c r="D73" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E73">
-        <v>35</v>
-      </c>
-      <c r="F73">
+      <c r="E73" s="1">
+        <v>35</v>
+      </c>
+      <c r="F73" s="1">
         <v>0.49951460519109475</v>
       </c>
-      <c r="G73">
+      <c r="G73" s="1">
         <v>34.825682907877052</v>
       </c>
-      <c r="H73">
+      <c r="H73" s="1">
         <v>65</v>
       </c>
-      <c r="I73" s="6">
+      <c r="I73" s="4">
         <v>249.85900000000001</v>
       </c>
-      <c r="J73" t="s">
-        <v>39</v>
-      </c>
-      <c r="K73">
-        <v>0</v>
-      </c>
-      <c r="L73" t="s">
+      <c r="J73" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K73" s="1">
+        <v>0</v>
+      </c>
+      <c r="L73" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="M73">
+      <c r="M73" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="N73">
+      <c r="N73" s="1">
         <f t="shared" si="7"/>
         <v>100</v>
       </c>
-      <c r="O73">
+      <c r="O73" s="1">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A74" s="15" t="s">
+      <c r="A74" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B74" s="3" t="s">
@@ -4289,95 +4269,95 @@
       <c r="D74" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E74">
-        <v>35</v>
-      </c>
-      <c r="F74">
+      <c r="E74" s="1">
+        <v>35</v>
+      </c>
+      <c r="F74" s="1">
         <v>0.49951460519109475</v>
       </c>
-      <c r="G74">
+      <c r="G74" s="1">
         <v>34.825682907877052</v>
       </c>
-      <c r="H74">
+      <c r="H74" s="1">
         <v>73</v>
       </c>
-      <c r="I74" s="6">
+      <c r="I74" s="4">
         <v>1931.646</v>
       </c>
-      <c r="J74" t="s">
-        <v>39</v>
-      </c>
-      <c r="K74">
-        <v>0</v>
-      </c>
-      <c r="L74" t="s">
+      <c r="J74" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K74" s="1">
+        <v>0</v>
+      </c>
+      <c r="L74" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="M74">
+      <c r="M74" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="N74">
+      <c r="N74" s="1">
         <f t="shared" si="7"/>
         <v>100</v>
       </c>
-      <c r="O74">
+      <c r="O74" s="1">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A75" s="15" t="s">
+      <c r="A75" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B75" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="C75" s="2" t="s">
         <v>54</v>
       </c>
       <c r="D75" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E75">
-        <v>35</v>
-      </c>
-      <c r="F75">
+      <c r="E75" s="1">
+        <v>35</v>
+      </c>
+      <c r="F75" s="1">
         <v>0.49951460519109475</v>
       </c>
-      <c r="G75">
+      <c r="G75" s="1">
         <v>34.825682907877052</v>
       </c>
-      <c r="H75">
+      <c r="H75" s="1">
         <v>7</v>
       </c>
-      <c r="I75" s="7">
+      <c r="I75" s="5">
         <v>2178.8270000000002</v>
       </c>
-      <c r="J75" t="s">
-        <v>39</v>
-      </c>
-      <c r="K75" s="7">
+      <c r="J75" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K75" s="5">
         <v>402.00790000000001</v>
       </c>
-      <c r="L75" s="6">
+      <c r="L75" s="4">
         <v>2017</v>
       </c>
-      <c r="M75">
+      <c r="M75" s="1">
         <f t="shared" si="6"/>
         <v>0.18450657165529891</v>
       </c>
-      <c r="N75">
+      <c r="N75" s="1">
         <f t="shared" si="7"/>
         <v>81.54934283447011</v>
       </c>
-      <c r="O75">
+      <c r="O75" s="1">
         <f t="shared" si="8"/>
         <v>0.81549342834470107</v>
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A76" s="15">
+      <c r="A76" s="2">
         <v>694</v>
       </c>
       <c r="B76" s="3" t="s">
@@ -4389,45 +4369,45 @@
       <c r="D76" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E76">
-        <v>35</v>
-      </c>
-      <c r="F76">
+      <c r="E76" s="1">
+        <v>35</v>
+      </c>
+      <c r="F76" s="1">
         <v>0.49951460519109475</v>
       </c>
-      <c r="G76">
+      <c r="G76" s="1">
         <v>34.825682907877052</v>
       </c>
-      <c r="H76">
+      <c r="H76" s="1">
         <v>38</v>
       </c>
-      <c r="I76" s="6">
+      <c r="I76" s="4">
         <v>685.88099999999997</v>
       </c>
-      <c r="J76" t="s">
-        <v>39</v>
-      </c>
-      <c r="K76">
-        <v>0</v>
-      </c>
-      <c r="L76" t="s">
+      <c r="J76" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K76" s="1">
+        <v>0</v>
+      </c>
+      <c r="L76" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="M76">
+      <c r="M76" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="N76">
+      <c r="N76" s="1">
         <f t="shared" si="7"/>
         <v>100</v>
       </c>
-      <c r="O76">
+      <c r="O76" s="1">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A77" s="15" t="s">
+      <c r="A77" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B77" s="3" t="s">
@@ -4439,189 +4419,189 @@
       <c r="D77" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E77">
-        <v>35</v>
-      </c>
-      <c r="F77">
+      <c r="E77" s="1">
+        <v>35</v>
+      </c>
+      <c r="F77" s="1">
         <v>0.49951460519109475</v>
       </c>
-      <c r="G77">
+      <c r="G77" s="1">
         <v>34.825682907877052</v>
       </c>
-      <c r="H77">
+      <c r="H77" s="1">
         <v>42</v>
       </c>
-      <c r="I77" s="6">
+      <c r="I77" s="4">
         <v>1869.9780000000001</v>
       </c>
-      <c r="J77" t="s">
-        <v>39</v>
-      </c>
-      <c r="K77">
-        <v>0</v>
-      </c>
-      <c r="L77" t="s">
+      <c r="J77" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K77" s="1">
+        <v>0</v>
+      </c>
+      <c r="L77" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="M77">
+      <c r="M77" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="N77">
+      <c r="N77" s="1">
         <f t="shared" si="7"/>
         <v>100</v>
       </c>
-      <c r="O77">
+      <c r="O77" s="1">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A78" s="15" t="s">
+      <c r="A78" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B78" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="C78" s="2" t="s">
         <v>54</v>
       </c>
       <c r="D78" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E78">
+      <c r="E78" s="1">
         <v>38</v>
       </c>
-      <c r="F78">
+      <c r="F78" s="1">
         <v>0.40785196721995665</v>
       </c>
-      <c r="G78">
+      <c r="G78" s="1">
         <v>28.435051019824108</v>
       </c>
-      <c r="H78">
+      <c r="H78" s="1">
         <v>8</v>
       </c>
-      <c r="I78" s="6">
+      <c r="I78" s="4">
         <v>2390.7359999999999</v>
       </c>
-      <c r="J78" t="s">
-        <v>39</v>
-      </c>
-      <c r="K78" s="6">
+      <c r="J78" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K78" s="4">
         <v>662.57299999999998</v>
       </c>
-      <c r="L78" s="6">
+      <c r="L78" s="4">
         <v>2017</v>
       </c>
-      <c r="M78">
+      <c r="M78" s="1">
         <f t="shared" si="6"/>
         <v>0.27714185087772136</v>
       </c>
-      <c r="N78">
+      <c r="N78" s="1">
         <f t="shared" si="7"/>
         <v>72.285814912227863</v>
       </c>
-      <c r="O78">
+      <c r="O78" s="1">
         <f t="shared" si="8"/>
         <v>0.72285814912227864</v>
       </c>
     </row>
-    <row r="79" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="15" t="s">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A79" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B79" s="9" t="s">
+      <c r="B79" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C79" s="10" t="s">
+      <c r="C79" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D79" s="10" t="s">
+      <c r="D79" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E79" s="13">
+      <c r="E79" s="6">
         <v>38</v>
       </c>
-      <c r="F79" s="5">
+      <c r="F79" s="1">
         <v>0.40785196721995665</v>
       </c>
-      <c r="G79" s="5">
+      <c r="G79" s="1">
         <v>28.435051019824108</v>
       </c>
-      <c r="H79" s="5">
+      <c r="H79" s="1">
         <v>16</v>
       </c>
-      <c r="I79" s="11">
+      <c r="I79" s="4">
         <v>875.96299999999997</v>
       </c>
-      <c r="J79" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="K79" s="11">
+      <c r="J79" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K79" s="4">
         <v>177.72300000000001</v>
       </c>
-      <c r="L79" s="11">
+      <c r="L79" s="4">
         <v>2017</v>
       </c>
-      <c r="M79" s="5">
+      <c r="M79" s="1">
         <f t="shared" si="6"/>
         <v>0.20288870648646121</v>
       </c>
-      <c r="N79" s="5">
+      <c r="N79" s="1">
         <f t="shared" si="7"/>
         <v>79.711129351353875</v>
       </c>
-      <c r="O79" s="5">
+      <c r="O79" s="1">
         <f t="shared" si="8"/>
         <v>0.79711129351353871</v>
       </c>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A80" s="15">
+      <c r="A80" s="2">
         <v>32</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C80" s="1" t="s">
+      <c r="C80" s="2" t="s">
         <v>54</v>
       </c>
       <c r="D80" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E80">
+      <c r="E80" s="1">
         <v>38</v>
       </c>
-      <c r="F80">
+      <c r="F80" s="1">
         <v>0.40785196721995665</v>
       </c>
-      <c r="G80">
+      <c r="G80" s="1">
         <v>28.435051019824108</v>
       </c>
-      <c r="H80">
+      <c r="H80" s="1">
         <v>17</v>
       </c>
-      <c r="I80" s="6">
+      <c r="I80" s="4">
         <v>764.68299999999999</v>
       </c>
-      <c r="J80" t="s">
-        <v>39</v>
-      </c>
-      <c r="K80">
-        <v>0</v>
-      </c>
-      <c r="L80" t="s">
+      <c r="J80" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K80" s="1">
+        <v>0</v>
+      </c>
+      <c r="L80" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="M80">
+      <c r="M80" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="N80">
+      <c r="N80" s="1">
         <f t="shared" si="7"/>
         <v>100</v>
       </c>
-      <c r="O80">
+      <c r="O80" s="1">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
